--- a/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.46759401949122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.550517269846262</v>
+        <v>3.550517269846264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2003634200818005</v>
@@ -649,7 +649,7 @@
         <v>0.141806857421644</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3495620704754651</v>
+        <v>0.3495620704754653</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.100256149799028</v>
+        <v>-1.449495675598679</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.753691359274354</v>
+        <v>-1.717680072905712</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.356542258151224</v>
+        <v>-2.478399237566345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7601639951185614</v>
+        <v>0.6205353007980516</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1289580985026781</v>
+        <v>-0.08689794871264903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.09306932354049756</v>
+        <v>-0.08716528567894929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2057433762224024</v>
+        <v>-0.1995207272616719</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.04956010687051825</v>
+        <v>0.049157629884243</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.123119557333169</v>
+        <v>7.771753671426107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.129208706607722</v>
+        <v>7.022948437506105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.302906023737389</v>
+        <v>5.235458290569791</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.175630407008841</v>
+        <v>6.31445740946728</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5559740920376871</v>
+        <v>0.619422312229849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4598450555055127</v>
+        <v>0.4946848342854727</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6394946654547318</v>
+        <v>0.6637901801879718</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7134832321423015</v>
+        <v>0.7363342443882482</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.210157530027863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.1893451251880229</v>
+        <v>-0.1893451251880257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.127416427445502</v>
@@ -749,7 +749,7 @@
         <v>0.01794968275430491</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.02041328409034472</v>
+        <v>-0.02041328409034501</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.978285021520874</v>
+        <v>-2.081948287812828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9634747730667128</v>
+        <v>1.230072784916527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.13682925067723</v>
+        <v>-3.113196514541546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.775826907049533</v>
+        <v>-2.511779861256076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1269827787635165</v>
+        <v>-0.1422771702429674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06093174755569063</v>
+        <v>0.07481208106306433</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2373285782016343</v>
+        <v>-0.2346419793718682</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2401572346086764</v>
+        <v>-0.234480976856325</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.286053153761559</v>
+        <v>5.328454797759107</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.26424611228828</v>
+        <v>8.497870601970661</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.696297147042688</v>
+        <v>3.091185541484525</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.006001693439688</v>
+        <v>1.889941197767371</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4421986894896922</v>
+        <v>0.4503351842939245</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6947566182371198</v>
+        <v>0.7186539094394173</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3758148686900511</v>
+        <v>0.3075486334114477</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2595682811470257</v>
+        <v>0.2442026895291519</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.438149908941779</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.923577219304469</v>
+        <v>1.923577219304466</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1379247646595281</v>
@@ -849,7 +849,7 @@
         <v>0.3016369883400783</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1846103084382543</v>
+        <v>0.184610308438254</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.914997581078396</v>
+        <v>-2.393353030590162</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1891806489655524</v>
+        <v>-0.571287871245205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.2936979474352</v>
+        <v>-1.395104487283611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.192867821072944</v>
+        <v>-1.429236866887639</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.171902745145329</v>
+        <v>-0.1513607769237568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02038842672079721</v>
+        <v>-0.03257586255093353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1380885383105724</v>
+        <v>-0.1474538530768459</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1014011645025257</v>
+        <v>-0.1279621549985639</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.418184113600464</v>
+        <v>6.063351838536527</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.172809128666806</v>
+        <v>7.911679610447663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.030632773025902</v>
+        <v>6.099036008301581</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.635196006829218</v>
+        <v>4.679123258088707</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5207933023952778</v>
+        <v>0.4657738144736744</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7329135505352123</v>
+        <v>0.7268719517400056</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9530658329584567</v>
+        <v>0.9617758102388626</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5316385831421913</v>
+        <v>0.5203074224215658</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.4146674193224092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.042361466146453</v>
+        <v>2.042361466146456</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2932485620730429</v>
@@ -949,7 +949,7 @@
         <v>0.0358665854248766</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.175298441970315</v>
+        <v>0.1752984419703152</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.0238646329203872</v>
+        <v>0.0873865341823746</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.052926333837223</v>
+        <v>-1.860415158007215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.958533662368102</v>
+        <v>-2.84549754118038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.5657601202048776</v>
+        <v>-0.5396315690011084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0009033069719387077</v>
+        <v>0.003997087014054191</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1119977400123153</v>
+        <v>-0.1016092785881635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2246894268196886</v>
+        <v>-0.2168809982751528</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04439772097056175</v>
+        <v>-0.04170414928616054</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.78032245364477</v>
+        <v>6.868309164630142</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.193581495302515</v>
+        <v>5.132790368666647</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.566752102886932</v>
+        <v>3.635213288402976</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.554827049377016</v>
+        <v>4.674610010252018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6637453232486296</v>
+        <v>0.6665309053979841</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3749901388481893</v>
+        <v>0.3633213989704015</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3632469461468308</v>
+        <v>0.3568293874373332</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4473662775364952</v>
+        <v>0.4573698118008573</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.9852206273984185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.698380610685284</v>
+        <v>1.698380610685282</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1870058092111553</v>
@@ -1049,7 +1049,7 @@
         <v>0.09251762888413907</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1637783572164557</v>
+        <v>0.1637783572164555</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6053769819514327</v>
+        <v>0.7020556268893853</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.244981163480755</v>
+        <v>1.460045708141212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5561242380246445</v>
+        <v>-0.6717334881397936</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3835506686462238</v>
+        <v>0.3437845836398181</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03987705408568106</v>
+        <v>0.04907701555416637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07832719918473832</v>
+        <v>0.09282738395419812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.05124799338702159</v>
+        <v>-0.05734064008407151</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.02943480569279436</v>
+        <v>0.03189793672993722</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.718921048671882</v>
+        <v>4.490708650265328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.020594690290779</v>
+        <v>5.326666073536844</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.714031362740656</v>
+        <v>2.674109301394278</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.039317474767353</v>
+        <v>3.012089146083443</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3765439869809626</v>
+        <v>0.3569383547833876</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3606222464956765</v>
+        <v>0.3819185586578226</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2810305492599869</v>
+        <v>0.2739284525834097</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3159536535524473</v>
+        <v>0.3186190141955634</v>
       </c>
     </row>
     <row r="19">
